--- a/logs/2024/The Unbearable Lightness of Being - Milan Kundera.xlsx
+++ b/logs/2024/The Unbearable Lightness of Being - Milan Kundera.xlsx
@@ -430,7 +430,7 @@
         <v>45469</v>
       </c>
       <c r="B1" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45470</v>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45471</v>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45472</v>
       </c>
       <c r="B4" t="n">
-        <v>128</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45475</v>
       </c>
       <c r="B5" t="n">
-        <v>148</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45478</v>
       </c>
       <c r="B6" t="n">
-        <v>163</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45480</v>
       </c>
       <c r="B7" t="n">
-        <v>177</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>45481</v>
       </c>
       <c r="B8" t="n">
-        <v>191</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>45482</v>
       </c>
       <c r="B9" t="n">
-        <v>207</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
